--- a/java/collection/各种集合的比较.xlsx
+++ b/java/collection/各种集合的比较.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julian\my\techonoly\translate-article\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julian\my\techonoly\translate-article\java\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A376437F-9543-461F-ABA7-47C005A03E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E096225-2AB4-49B7-8C8C-4D872740E656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map实现类" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>数组、链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组（哈希探针表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -358,6 +354,21 @@
   </si>
   <si>
     <t>capacity + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组（哈希探针表）
+key | value | key1 | value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双数组
+第一个数组用于存储枚举对象
+第二个数组用于存储值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurrentHashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,12 +810,13 @@
     <col min="6" max="6" width="55.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="31.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -827,8 +839,11 @@
       <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -838,23 +853,23 @@
       <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -868,19 +883,19 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -891,22 +906,22 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -927,10 +942,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -941,7 +956,7 @@
         <v>0.75</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6">
         <v>0.75</v>
@@ -952,7 +967,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -963,18 +978,18 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -985,18 +1000,18 @@
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1004,64 +1019,64 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1091,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1093,22 +1108,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -1116,19 +1131,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,16 +1169,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1178,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2BA3E9-E601-4B42-88F9-DC848543C9CF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1194,19 +1209,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1214,16 +1229,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1234,30 +1249,30 @@
         <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1284,10 +1299,10 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
